--- a/cortab/sheets/corpusTable_prep.xlsx
+++ b/cortab/sheets/corpusTable_prep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcharvat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C5212C-32FE-4C4C-A1DC-23734F12F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D90E83D-F453-4372-AEE3-715BC9CFE1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="913">
   <si>
     <t>id</t>
   </si>
@@ -4112,9 +4112,6 @@
   </si>
   <si>
     <t>http://korpus.juls.savba.sk/res_en.html</t>
-  </si>
-  <si>
-    <t>1155742085 records</t>
   </si>
   <si>
     <t>Vera Maria Charvat</t>
@@ -5708,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13681D-27C1-479A-B3FE-2062994A3E46}">
   <dimension ref="A1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" topLeftCell="E106" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16280,7 +16277,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="30.75">
+    <row r="112" spans="1:31">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -16302,8 +16299,8 @@
       <c r="G112" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H112" s="18" t="s">
-        <v>779</v>
+      <c r="H112" s="18">
+        <v>1155742085</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>33</v>
@@ -16366,7 +16363,7 @@
         <v>44</v>
       </c>
       <c r="AC112" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AD112" s="32">
         <v>45146</v>
@@ -16412,16 +16409,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>781</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>782</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>783</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -16438,10 +16435,10 @@
         <v>34</v>
       </c>
       <c r="E2" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>33</v>
@@ -16458,13 +16455,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>33</v>
@@ -16481,13 +16478,13 @@
         <v>32</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>789</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>790</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>33</v>
@@ -16507,10 +16504,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>33</v>
@@ -16527,13 +16524,13 @@
         <v>47</v>
       </c>
       <c r="D6" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>33</v>
@@ -16550,13 +16547,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>33</v>
@@ -16576,10 +16573,10 @@
         <v>53</v>
       </c>
       <c r="E8" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>33</v>
@@ -16596,13 +16593,13 @@
         <v>52</v>
       </c>
       <c r="D9" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>33</v>
@@ -16622,10 +16619,10 @@
         <v>58</v>
       </c>
       <c r="E10" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>33</v>
@@ -16642,13 +16639,13 @@
         <v>57</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>33</v>
@@ -16665,13 +16662,13 @@
         <v>57</v>
       </c>
       <c r="D12" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>33</v>
@@ -16691,10 +16688,10 @@
         <v>65</v>
       </c>
       <c r="E13" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>33</v>
@@ -16711,13 +16708,13 @@
         <v>64</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>33</v>
@@ -16734,13 +16731,13 @@
         <v>64</v>
       </c>
       <c r="D15" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>33</v>
@@ -16760,10 +16757,10 @@
         <v>71</v>
       </c>
       <c r="E16" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>33</v>
@@ -16780,13 +16777,13 @@
         <v>70</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>33</v>
@@ -16803,13 +16800,13 @@
         <v>70</v>
       </c>
       <c r="D18" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>33</v>
@@ -16829,10 +16826,10 @@
         <v>80</v>
       </c>
       <c r="E19" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>33</v>
@@ -16849,13 +16846,13 @@
         <v>79</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>33</v>
@@ -16872,13 +16869,13 @@
         <v>79</v>
       </c>
       <c r="D21" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G21" s="39" t="s">
         <v>33</v>
@@ -16898,10 +16895,10 @@
         <v>83</v>
       </c>
       <c r="E22" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>33</v>
@@ -16918,13 +16915,13 @@
         <v>82</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>33</v>
@@ -16941,13 +16938,13 @@
         <v>82</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>33</v>
@@ -16967,10 +16964,10 @@
         <v>89</v>
       </c>
       <c r="E25" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F25" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>33</v>
@@ -16987,13 +16984,13 @@
         <v>88</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>33</v>
@@ -17010,13 +17007,13 @@
         <v>88</v>
       </c>
       <c r="D27" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>33</v>
@@ -17036,10 +17033,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F28" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>33</v>
@@ -17056,13 +17053,13 @@
         <v>92</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>33</v>
@@ -17079,13 +17076,13 @@
         <v>92</v>
       </c>
       <c r="D30" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>33</v>
@@ -17105,10 +17102,10 @@
         <v>97</v>
       </c>
       <c r="E31" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>33</v>
@@ -17125,13 +17122,13 @@
         <v>96</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>33</v>
@@ -17148,13 +17145,13 @@
         <v>96</v>
       </c>
       <c r="D33" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>33</v>
@@ -17174,10 +17171,10 @@
         <v>104</v>
       </c>
       <c r="E34" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F34" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>33</v>
@@ -17194,13 +17191,13 @@
         <v>103</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G35" s="39" t="s">
         <v>33</v>
@@ -17217,13 +17214,13 @@
         <v>103</v>
       </c>
       <c r="D36" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>33</v>
@@ -17243,10 +17240,10 @@
         <v>111</v>
       </c>
       <c r="E37" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F37" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>33</v>
@@ -17263,13 +17260,13 @@
         <v>110</v>
       </c>
       <c r="D38" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>33</v>
@@ -17289,10 +17286,10 @@
         <v>115</v>
       </c>
       <c r="E39" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F39" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>33</v>
@@ -17309,13 +17306,13 @@
         <v>114</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>33</v>
@@ -17332,13 +17329,13 @@
         <v>114</v>
       </c>
       <c r="D41" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G41" s="39" t="s">
         <v>33</v>
@@ -17358,10 +17355,10 @@
         <v>121</v>
       </c>
       <c r="E42" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F42" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>33</v>
@@ -17378,13 +17375,13 @@
         <v>120</v>
       </c>
       <c r="D43" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>787</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>788</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>33</v>
@@ -17404,7 +17401,7 @@
         <v>126</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39" t="s">
@@ -17422,13 +17419,13 @@
         <v>125</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E45" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>33</v>
@@ -17448,10 +17445,10 @@
         <v>144</v>
       </c>
       <c r="E46" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>785</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>786</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>33</v>
@@ -17468,13 +17465,13 @@
         <v>143</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>33</v>
@@ -17491,13 +17488,13 @@
         <v>143</v>
       </c>
       <c r="D48" s="39" t="s">
+        <v>803</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F48" s="39" t="s">
         <v>804</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>805</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>33</v>
@@ -17517,10 +17514,10 @@
         <v>155</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>33</v>
@@ -17537,13 +17534,13 @@
         <v>153</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E50" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>33</v>
@@ -17563,10 +17560,10 @@
         <v>163</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G51" s="39" t="s">
         <v>33</v>
@@ -17583,13 +17580,13 @@
         <v>162</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>33</v>
@@ -17612,7 +17609,7 @@
         <v>33</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>33</v>
@@ -17629,13 +17626,13 @@
         <v>169</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>33</v>
@@ -17655,13 +17652,13 @@
         <v>180</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -17675,16 +17672,16 @@
         <v>179</v>
       </c>
       <c r="D56" s="39" t="s">
+        <v>810</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="G56" s="39" t="s">
         <v>811</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -17698,16 +17695,16 @@
         <v>179</v>
       </c>
       <c r="D57" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>813</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -17721,16 +17718,16 @@
         <v>179</v>
       </c>
       <c r="D58" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G58" s="39" t="s">
         <v>815</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -17747,10 +17744,10 @@
         <v>188</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G59" s="39" t="s">
         <v>33</v>
@@ -17767,16 +17764,16 @@
         <v>187</v>
       </c>
       <c r="D60" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G60" s="39" t="s">
         <v>817</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -17793,10 +17790,10 @@
         <v>196</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>33</v>
@@ -17813,16 +17810,16 @@
         <v>195</v>
       </c>
       <c r="D62" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G62" s="38" t="s">
         <v>819</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G62" s="38" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -17836,13 +17833,13 @@
         <v>195</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G63" s="39" t="s">
         <v>33</v>
@@ -17862,10 +17859,10 @@
         <v>201</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>33</v>
@@ -17882,16 +17879,16 @@
         <v>200</v>
       </c>
       <c r="D65" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>822</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -17908,10 +17905,10 @@
         <v>207</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G66" s="39" t="s">
         <v>33</v>
@@ -17928,13 +17925,13 @@
         <v>206</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G67" s="39" t="s">
         <v>33</v>
@@ -17954,10 +17951,10 @@
         <v>215</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G68" s="39" t="s">
         <v>33</v>
@@ -17974,13 +17971,13 @@
         <v>214</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E69" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G69" s="39" t="s">
         <v>33</v>
@@ -17997,13 +17994,13 @@
         <v>214</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E70" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>33</v>
@@ -18023,10 +18020,10 @@
         <v>228</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>33</v>
@@ -18046,10 +18043,10 @@
         <v>232</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>33</v>
@@ -18066,16 +18063,16 @@
         <v>231</v>
       </c>
       <c r="D73" s="39" t="s">
+        <v>825</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G73" s="39" t="s">
         <v>826</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -18089,16 +18086,16 @@
         <v>231</v>
       </c>
       <c r="D74" s="39" t="s">
+        <v>827</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G74" s="39" t="s">
         <v>828</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -18112,13 +18109,13 @@
         <v>231</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>33</v>
@@ -18138,10 +18135,10 @@
         <v>240</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G76" s="39" t="s">
         <v>33</v>
@@ -18158,16 +18155,16 @@
         <v>239</v>
       </c>
       <c r="D77" s="39" t="s">
+        <v>830</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G77" s="39" t="s">
         <v>831</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -18184,10 +18181,10 @@
         <v>249</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G78" s="39" t="s">
         <v>33</v>
@@ -18210,7 +18207,7 @@
         <v>33</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>33</v>
@@ -18227,16 +18224,16 @@
         <v>255</v>
       </c>
       <c r="D80" s="39" t="s">
+        <v>832</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="G80" s="39" t="s">
         <v>833</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F80" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="G80" s="39" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -18250,13 +18247,13 @@
         <v>255</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E81" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>33</v>
@@ -18276,10 +18273,10 @@
         <v>266</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>33</v>
@@ -18296,16 +18293,16 @@
         <v>265</v>
       </c>
       <c r="D83" s="39" t="s">
+        <v>835</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G83" s="39" t="s">
         <v>836</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30.75">
@@ -18322,10 +18319,10 @@
         <v>275</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>33</v>
@@ -18342,13 +18339,13 @@
         <v>274</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E85" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>33</v>
@@ -18368,10 +18365,10 @@
         <v>284</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G86" s="39" t="s">
         <v>33</v>
@@ -18391,10 +18388,10 @@
         <v>290</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>33</v>
@@ -18411,13 +18408,13 @@
         <v>289</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E88" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>33</v>
@@ -18437,10 +18434,10 @@
         <v>297</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>33</v>
@@ -18457,16 +18454,16 @@
         <v>296</v>
       </c>
       <c r="D90" s="39" t="s">
+        <v>839</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F90" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G90" s="39" t="s">
         <v>840</v>
-      </c>
-      <c r="E90" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F90" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -18480,13 +18477,13 @@
         <v>296</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>33</v>
@@ -18506,10 +18503,10 @@
         <v>306</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G92" s="39" t="s">
         <v>33</v>
@@ -18529,10 +18526,10 @@
         <v>311</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>33</v>
@@ -18549,16 +18546,16 @@
         <v>310</v>
       </c>
       <c r="D94" s="39" t="s">
+        <v>842</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G94" s="39" t="s">
         <v>843</v>
-      </c>
-      <c r="E94" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F94" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G94" s="39" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -18572,16 +18569,16 @@
         <v>310</v>
       </c>
       <c r="D95" s="39" t="s">
+        <v>844</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G95" s="39" t="s">
         <v>845</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F95" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G95" s="39" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -18595,16 +18592,16 @@
         <v>310</v>
       </c>
       <c r="D96" s="39" t="s">
+        <v>846</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G96" s="39" t="s">
         <v>847</v>
-      </c>
-      <c r="E96" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G96" s="39" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -18621,10 +18618,10 @@
         <v>318</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G97" s="39" t="s">
         <v>33</v>
@@ -18641,16 +18638,16 @@
         <v>317</v>
       </c>
       <c r="D98" s="39" t="s">
+        <v>848</v>
+      </c>
+      <c r="E98" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G98" s="39" t="s">
         <v>849</v>
-      </c>
-      <c r="E98" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G98" s="39" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30.75">
@@ -18667,10 +18664,10 @@
         <v>322</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G99" s="39" t="s">
         <v>33</v>
@@ -18687,13 +18684,13 @@
         <v>321</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G100" s="39" t="s">
         <v>33</v>
@@ -18710,13 +18707,13 @@
         <v>321</v>
       </c>
       <c r="D101" s="39" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E101" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G101" s="39" t="s">
         <v>33</v>
@@ -18736,10 +18733,10 @@
         <v>332</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G102" s="39" t="s">
         <v>33</v>
@@ -18756,13 +18753,13 @@
         <v>331</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E103" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G103" s="39" t="s">
         <v>33</v>
@@ -18782,10 +18779,10 @@
         <v>338</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G104" s="39" t="s">
         <v>33</v>
@@ -18805,10 +18802,10 @@
         <v>346</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G105" s="39" t="s">
         <v>33</v>
@@ -18825,16 +18822,16 @@
         <v>345</v>
       </c>
       <c r="D106" s="39" t="s">
+        <v>853</v>
+      </c>
+      <c r="E106" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G106" s="39" t="s">
         <v>854</v>
-      </c>
-      <c r="E106" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F106" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G106" s="39" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30.75">
@@ -18851,10 +18848,10 @@
         <v>357</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G107" s="39" t="s">
         <v>33</v>
@@ -18871,13 +18868,13 @@
         <v>356</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G108" s="39" t="s">
         <v>33</v>
@@ -18900,7 +18897,7 @@
         <v>33</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G109" s="39" t="s">
         <v>33</v>
@@ -18917,16 +18914,16 @@
         <v>361</v>
       </c>
       <c r="D110" s="39" t="s">
+        <v>856</v>
+      </c>
+      <c r="E110" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F110" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G110" s="39" t="s">
         <v>857</v>
-      </c>
-      <c r="E110" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F110" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G110" s="39" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -18943,10 +18940,10 @@
         <v>369</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G111" s="39" t="s">
         <v>33</v>
@@ -18966,10 +18963,10 @@
         <v>376</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G112" s="39" t="s">
         <v>33</v>
@@ -18986,16 +18983,16 @@
         <v>375</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E113" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -19009,16 +19006,16 @@
         <v>375</v>
       </c>
       <c r="D114" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="E114" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G114" s="39" t="s">
         <v>860</v>
-      </c>
-      <c r="E114" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F114" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G114" s="39" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -19035,10 +19032,10 @@
         <v>384</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F115" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>33</v>
@@ -19055,16 +19052,16 @@
         <v>383</v>
       </c>
       <c r="D116" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G116" s="39" t="s">
         <v>862</v>
-      </c>
-      <c r="E116" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F116" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G116" s="39" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -19081,10 +19078,10 @@
         <v>392</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F117" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G117" s="39" t="s">
         <v>33</v>
@@ -19104,10 +19101,10 @@
         <v>397</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G118" s="39" t="s">
         <v>33</v>
@@ -19124,13 +19121,13 @@
         <v>396</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E119" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F119" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G119" s="39" t="s">
         <v>33</v>
@@ -19150,10 +19147,10 @@
         <v>402</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F120" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G120" s="39" t="s">
         <v>33</v>
@@ -19173,10 +19170,10 @@
         <v>407</v>
       </c>
       <c r="E121" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F121" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G121" s="39" t="s">
         <v>33</v>
@@ -19193,16 +19190,16 @@
         <v>406</v>
       </c>
       <c r="D122" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="E122" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F122" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G122" s="39" t="s">
         <v>865</v>
-      </c>
-      <c r="E122" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F122" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G122" s="39" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -19216,16 +19213,16 @@
         <v>406</v>
       </c>
       <c r="D123" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="E123" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G123" s="39" t="s">
         <v>867</v>
-      </c>
-      <c r="E123" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G123" s="39" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -19242,10 +19239,10 @@
         <v>418</v>
       </c>
       <c r="E124" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F124" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>33</v>
@@ -19262,16 +19259,16 @@
         <v>417</v>
       </c>
       <c r="D125" s="39" t="s">
+        <v>868</v>
+      </c>
+      <c r="E125" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G125" s="39" t="s">
         <v>869</v>
-      </c>
-      <c r="E125" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F125" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G125" s="39" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -19285,16 +19282,16 @@
         <v>417</v>
       </c>
       <c r="D126" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G126" s="39" t="s">
         <v>871</v>
-      </c>
-      <c r="E126" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F126" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G126" s="39" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -19308,16 +19305,16 @@
         <v>417</v>
       </c>
       <c r="D127" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="E127" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G127" s="39" t="s">
         <v>873</v>
-      </c>
-      <c r="E127" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F127" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G127" s="39" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -19331,13 +19328,13 @@
         <v>417</v>
       </c>
       <c r="D128" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E128" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G128" s="39" t="s">
         <v>33</v>
@@ -19357,10 +19354,10 @@
         <v>428</v>
       </c>
       <c r="E129" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F129" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G129" s="39" t="s">
         <v>33</v>
@@ -19377,16 +19374,16 @@
         <v>427</v>
       </c>
       <c r="D130" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="E130" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G130" s="39" t="s">
         <v>876</v>
-      </c>
-      <c r="E130" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F130" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G130" s="39" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -19403,10 +19400,10 @@
         <v>436</v>
       </c>
       <c r="E131" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F131" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G131" s="39" t="s">
         <v>33</v>
@@ -19423,16 +19420,16 @@
         <v>435</v>
       </c>
       <c r="D132" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="E132" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F132" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G132" s="39" t="s">
         <v>878</v>
-      </c>
-      <c r="E132" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F132" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G132" s="39" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -19449,10 +19446,10 @@
         <v>442</v>
       </c>
       <c r="E133" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F133" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G133" s="39" t="s">
         <v>33</v>
@@ -19472,10 +19469,10 @@
         <v>448</v>
       </c>
       <c r="E134" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F134" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G134" s="39" t="s">
         <v>33</v>
@@ -19492,16 +19489,16 @@
         <v>447</v>
       </c>
       <c r="D135" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G135" s="39" t="s">
         <v>880</v>
-      </c>
-      <c r="E135" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F135" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G135" s="39" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -19518,10 +19515,10 @@
         <v>457</v>
       </c>
       <c r="E136" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F136" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G136" s="39" t="s">
         <v>33</v>
@@ -19538,16 +19535,16 @@
         <v>456</v>
       </c>
       <c r="D137" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="E137" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G137" s="39" t="s">
         <v>882</v>
-      </c>
-      <c r="E137" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F137" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G137" s="39" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -19561,13 +19558,13 @@
         <v>456</v>
       </c>
       <c r="D138" s="39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E138" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F138" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G138" s="39" t="s">
         <v>33</v>
@@ -19587,10 +19584,10 @@
         <v>466</v>
       </c>
       <c r="E139" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F139" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G139" s="39" t="s">
         <v>33</v>
@@ -19610,10 +19607,10 @@
         <v>470</v>
       </c>
       <c r="E140" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G140" s="39" t="s">
         <v>33</v>
@@ -19633,10 +19630,10 @@
         <v>473</v>
       </c>
       <c r="E141" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F141" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G141" s="39" t="s">
         <v>33</v>
@@ -19656,10 +19653,10 @@
         <v>476</v>
       </c>
       <c r="E142" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G142" s="39" t="s">
         <v>33</v>
@@ -19679,10 +19676,10 @@
         <v>481</v>
       </c>
       <c r="E143" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G143" s="39" t="s">
         <v>33</v>
@@ -19699,16 +19696,16 @@
         <v>480</v>
       </c>
       <c r="D144" s="39" t="s">
+        <v>884</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="G144" s="43" t="s">
         <v>885</v>
-      </c>
-      <c r="E144" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F144" s="39" t="s">
-        <v>788</v>
-      </c>
-      <c r="G144" s="43" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30.75">
@@ -19725,10 +19722,10 @@
         <v>489</v>
       </c>
       <c r="E145" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F145" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G145" s="39" t="s">
         <v>33</v>
@@ -19745,16 +19742,16 @@
         <v>488</v>
       </c>
       <c r="D146" s="44" t="s">
+        <v>886</v>
+      </c>
+      <c r="E146" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G146" s="44" t="s">
         <v>887</v>
-      </c>
-      <c r="E146" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F146" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G146" s="44" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -19771,10 +19768,10 @@
         <v>495</v>
       </c>
       <c r="E147" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F147" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G147" s="39" t="s">
         <v>33</v>
@@ -19791,13 +19788,13 @@
         <v>494</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E148" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G148" s="39" t="s">
         <v>33</v>
@@ -19817,10 +19814,10 @@
         <v>501</v>
       </c>
       <c r="E149" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G149" s="39" t="s">
         <v>33</v>
@@ -19837,13 +19834,13 @@
         <v>500</v>
       </c>
       <c r="D150" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E150" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F150" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G150" s="39" t="s">
         <v>33</v>
@@ -19860,13 +19857,13 @@
         <v>500</v>
       </c>
       <c r="D151" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E151" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F151" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G151" s="39" t="s">
         <v>33</v>
@@ -19886,10 +19883,10 @@
         <v>510</v>
       </c>
       <c r="E152" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F152" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G152" s="39" t="s">
         <v>33</v>
@@ -19909,10 +19906,10 @@
         <v>518</v>
       </c>
       <c r="E153" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G153" s="39" t="s">
         <v>33</v>
@@ -19932,10 +19929,10 @@
         <v>526</v>
       </c>
       <c r="E154" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G154" s="39" t="s">
         <v>33</v>
@@ -19955,10 +19952,10 @@
         <v>533</v>
       </c>
       <c r="E155" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G155" s="39" t="s">
         <v>33</v>
@@ -19978,10 +19975,10 @@
         <v>542</v>
       </c>
       <c r="E156" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F156" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G156" s="39" t="s">
         <v>33</v>
@@ -20001,10 +19998,10 @@
         <v>546</v>
       </c>
       <c r="E157" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F157" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G157" s="39" t="s">
         <v>33</v>
@@ -20024,10 +20021,10 @@
         <v>554</v>
       </c>
       <c r="E158" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F158" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G158" s="39" t="s">
         <v>33</v>
@@ -20044,13 +20041,13 @@
         <v>553</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E159" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F159" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G159" s="39" t="s">
         <v>33</v>
@@ -20070,10 +20067,10 @@
         <v>560</v>
       </c>
       <c r="E160" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F160" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G160" s="39" t="s">
         <v>33</v>
@@ -20090,16 +20087,16 @@
         <v>559</v>
       </c>
       <c r="D161" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G161" s="39" t="s">
         <v>893</v>
-      </c>
-      <c r="E161" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F161" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G161" s="39" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -20113,13 +20110,13 @@
         <v>559</v>
       </c>
       <c r="D162" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E162" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F162" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G162" s="39" t="s">
         <v>33</v>
@@ -20139,10 +20136,10 @@
         <v>569</v>
       </c>
       <c r="E163" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F163" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G163" s="39" t="s">
         <v>33</v>
@@ -20162,10 +20159,10 @@
         <v>576</v>
       </c>
       <c r="E164" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F164" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G164" s="39" t="s">
         <v>33</v>
@@ -20185,10 +20182,10 @@
         <v>586</v>
       </c>
       <c r="E165" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F165" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G165" s="39" t="s">
         <v>33</v>
@@ -20205,13 +20202,13 @@
         <v>585</v>
       </c>
       <c r="D166" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E166" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F166" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G166" s="39" t="s">
         <v>33</v>
@@ -20231,10 +20228,10 @@
         <v>592</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F167" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G167" s="39" t="s">
         <v>33</v>
@@ -20254,10 +20251,10 @@
         <v>599</v>
       </c>
       <c r="E168" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F168" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G168" s="39" t="s">
         <v>33</v>
@@ -20274,16 +20271,16 @@
         <v>598</v>
       </c>
       <c r="D169" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="E169" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G169" s="39" t="s">
         <v>897</v>
-      </c>
-      <c r="E169" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G169" s="39" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -20297,16 +20294,16 @@
         <v>598</v>
       </c>
       <c r="D170" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="G170" s="39" t="s">
         <v>899</v>
-      </c>
-      <c r="E170" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" s="43" t="s">
-        <v>806</v>
-      </c>
-      <c r="G170" s="39" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -20323,10 +20320,10 @@
         <v>605</v>
       </c>
       <c r="E171" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F171" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G171" s="39" t="s">
         <v>33</v>
@@ -20343,13 +20340,13 @@
         <v>604</v>
       </c>
       <c r="D172" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F172" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G172" s="39" t="s">
         <v>33</v>
@@ -20369,10 +20366,10 @@
         <v>613</v>
       </c>
       <c r="E173" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G173" s="39" t="s">
         <v>33</v>
@@ -20389,13 +20386,13 @@
         <v>612</v>
       </c>
       <c r="D174" s="39" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E174" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G174" s="39" t="s">
         <v>33</v>
@@ -20415,10 +20412,10 @@
         <v>620</v>
       </c>
       <c r="E175" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G175" s="39" t="s">
         <v>33</v>
@@ -20435,16 +20432,16 @@
         <v>619</v>
       </c>
       <c r="D176" s="39" t="s">
+        <v>902</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F176" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="G176" s="39" t="s">
         <v>903</v>
-      </c>
-      <c r="E176" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="F176" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G176" s="39" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="30.75">
@@ -20461,10 +20458,10 @@
         <v>627</v>
       </c>
       <c r="E177" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G177" s="39" t="s">
         <v>33</v>
@@ -20484,10 +20481,10 @@
         <v>634</v>
       </c>
       <c r="E178" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G178" s="39" t="s">
         <v>33</v>
@@ -20507,10 +20504,10 @@
         <v>642</v>
       </c>
       <c r="E179" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G179" s="39" t="s">
         <v>33</v>
@@ -20530,10 +20527,10 @@
         <v>650</v>
       </c>
       <c r="E180" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G180" s="39" t="s">
         <v>33</v>
@@ -20550,13 +20547,13 @@
         <v>649</v>
       </c>
       <c r="D181" s="39" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E181" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G181" s="39" t="s">
         <v>33</v>
@@ -20576,10 +20573,10 @@
         <v>659</v>
       </c>
       <c r="E182" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G182" s="39" t="s">
         <v>33</v>
@@ -20599,10 +20596,10 @@
         <v>666</v>
       </c>
       <c r="E183" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F183" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G183" s="39" t="s">
         <v>33</v>
@@ -20619,13 +20616,13 @@
         <v>665</v>
       </c>
       <c r="D184" s="39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E184" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F184" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G184" s="39" t="s">
         <v>33</v>
@@ -20645,10 +20642,10 @@
         <v>673</v>
       </c>
       <c r="E185" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F185" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G185" s="39" t="s">
         <v>33</v>
@@ -20668,10 +20665,10 @@
         <v>679</v>
       </c>
       <c r="E186" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F186" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G186" s="39" t="s">
         <v>33</v>
@@ -20688,13 +20685,13 @@
         <v>678</v>
       </c>
       <c r="D187" s="39" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E187" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G187" s="39" t="s">
         <v>33</v>
@@ -20714,10 +20711,10 @@
         <v>684</v>
       </c>
       <c r="E188" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G188" s="39" t="s">
         <v>33</v>
@@ -20737,10 +20734,10 @@
         <v>688</v>
       </c>
       <c r="E189" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F189" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G189" s="39" t="s">
         <v>33</v>
@@ -20760,10 +20757,10 @@
         <v>691</v>
       </c>
       <c r="E190" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F190" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G190" s="39" t="s">
         <v>33</v>
@@ -20783,10 +20780,10 @@
         <v>694</v>
       </c>
       <c r="E191" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F191" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G191" s="39" t="s">
         <v>33</v>
@@ -20806,10 +20803,10 @@
         <v>697</v>
       </c>
       <c r="E192" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F192" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G192" s="39" t="s">
         <v>33</v>
@@ -20829,10 +20826,10 @@
         <v>700</v>
       </c>
       <c r="E193" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F193" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G193" s="39" t="s">
         <v>33</v>
@@ -20852,10 +20849,10 @@
         <v>703</v>
       </c>
       <c r="E194" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F194" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G194" s="39" t="s">
         <v>33</v>
@@ -20875,10 +20872,10 @@
         <v>707</v>
       </c>
       <c r="E195" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F195" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G195" s="39" t="s">
         <v>33</v>
@@ -20898,10 +20895,10 @@
         <v>711</v>
       </c>
       <c r="E196" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F196" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G196" s="39" t="s">
         <v>33</v>
@@ -20918,13 +20915,13 @@
         <v>710</v>
       </c>
       <c r="D197" s="45" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E197" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F197" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G197" s="39" t="s">
         <v>33</v>
@@ -20941,7 +20938,7 @@
         <v>710</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E198" s="39" t="s">
         <v>33</v>
@@ -20965,10 +20962,10 @@
         <v>715</v>
       </c>
       <c r="E199" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F199" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G199" s="39" t="s">
         <v>33</v>
@@ -20991,7 +20988,7 @@
         <v>33</v>
       </c>
       <c r="F200" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G200" s="39" t="s">
         <v>33</v>
@@ -21008,13 +21005,13 @@
         <v>717</v>
       </c>
       <c r="D201" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E201" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F201" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G201" s="39" t="s">
         <v>33</v>
@@ -21034,10 +21031,10 @@
         <v>725</v>
       </c>
       <c r="E202" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F202" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G202" s="39" t="s">
         <v>33</v>
@@ -21057,10 +21054,10 @@
         <v>725</v>
       </c>
       <c r="E203" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F203" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G203" s="39" t="s">
         <v>33</v>
@@ -21080,10 +21077,10 @@
         <v>733</v>
       </c>
       <c r="E204" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F204" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G204" s="39" t="s">
         <v>33</v>
@@ -21103,10 +21100,10 @@
         <v>738</v>
       </c>
       <c r="E205" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F205" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G205" s="39" t="s">
         <v>33</v>
@@ -21126,10 +21123,10 @@
         <v>747</v>
       </c>
       <c r="E206" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F206" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G206" s="39" t="s">
         <v>33</v>
@@ -21149,10 +21146,10 @@
         <v>751</v>
       </c>
       <c r="E207" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F207" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G207" s="39" t="s">
         <v>33</v>
@@ -21172,10 +21169,10 @@
         <v>757</v>
       </c>
       <c r="E208" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F208" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G208" s="39" t="s">
         <v>33</v>
@@ -21195,10 +21192,10 @@
         <v>765</v>
       </c>
       <c r="E209" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F209" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G209" s="39" t="s">
         <v>33</v>
@@ -21218,10 +21215,10 @@
         <v>771</v>
       </c>
       <c r="E210" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F210" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G210" s="39" t="s">
         <v>33</v>
@@ -21241,10 +21238,10 @@
         <v>778</v>
       </c>
       <c r="E211" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F211" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G211" s="39" t="s">
         <v>33</v>
@@ -21261,13 +21258,13 @@
         <v>777</v>
       </c>
       <c r="D212" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E212" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F212" s="43" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G212" s="39" t="s">
         <v>33</v>
@@ -21284,16 +21281,16 @@
         <v>777</v>
       </c>
       <c r="D213" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="E213" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="G213" s="43" t="s">
         <v>912</v>
-      </c>
-      <c r="E213" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F213" s="43" t="s">
-        <v>806</v>
-      </c>
-      <c r="G213" s="43" t="s">
-        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -21302,26 +21299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E3261DFB21BBD4882DEE3D57B3A8DC9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="798bff4fba745f4c1f392c24abb8b1a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa2aa457-c057-42f4-8990-882fee487950" xmlns:ns3="227b4bc9-57bc-4bdb-842d-b6a969044232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98244d9abf430cf85e3c184444b0de3b" ns2:_="" ns3:_="">
     <xsd:import namespace="fa2aa457-c057-42f4-8990-882fee487950"/>
@@ -21552,8 +21529,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21561,5 +21558,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
 </file>
--- a/cortab/sheets/corpusTable_prep.xlsx
+++ b/cortab/sheets/corpusTable_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcharvat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D90E83D-F453-4372-AEE3-715BC9CFE1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6BD79E-45F4-468D-9410-4C470BC49995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4033,7 +4033,7 @@
     <t>https://github.com/linhd-postdata/projectgutenberg-poetry-corpora</t>
   </si>
   <si>
-    <t>Dutch, English, French, German, Italian, Portuguese, and Spanish.</t>
+    <t>Dutch, English, French, German, Italian, Portuguese, Spanish</t>
   </si>
   <si>
     <t>Verses</t>
@@ -5705,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13681D-27C1-479A-B3FE-2062994A3E46}">
   <dimension ref="A1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21299,6 +21299,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E3261DFB21BBD4882DEE3D57B3A8DC9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="798bff4fba745f4c1f392c24abb8b1a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa2aa457-c057-42f4-8990-882fee487950" xmlns:ns3="227b4bc9-57bc-4bdb-842d-b6a969044232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98244d9abf430cf85e3c184444b0de3b" ns2:_="" ns3:_="">
     <xsd:import namespace="fa2aa457-c057-42f4-8990-882fee487950"/>
@@ -21529,28 +21549,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21558,5 +21558,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
 </file>
--- a/cortab/sheets/corpusTable_prep.xlsx
+++ b/cortab/sheets/corpusTable_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcharvat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6BD79E-45F4-468D-9410-4C470BC49995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8563D007-7826-4702-A80C-8715D9884CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3294,7 +3294,7 @@
     <t>https://gallica.bnf.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">French, Spanish, English, German, Portuguese, Latin, Greek, Romanian, Romansh, </t>
+    <t xml:space="preserve">French, Spanish, English, German, Portuguese, Latin, Greek, Romanian, Romansh </t>
   </si>
   <si>
     <t xml:space="preserve">Susanne Zhanial:
@@ -5705,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13681D-27C1-479A-B3FE-2062994A3E46}">
   <dimension ref="A1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21299,26 +21299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E3261DFB21BBD4882DEE3D57B3A8DC9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="798bff4fba745f4c1f392c24abb8b1a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa2aa457-c057-42f4-8990-882fee487950" xmlns:ns3="227b4bc9-57bc-4bdb-842d-b6a969044232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98244d9abf430cf85e3c184444b0de3b" ns2:_="" ns3:_="">
     <xsd:import namespace="fa2aa457-c057-42f4-8990-882fee487950"/>
@@ -21549,14 +21529,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646C8EF6-25A7-43FD-9FE9-5E3A16AF2856}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
 </file>
--- a/cortab/sheets/corpusTable_prep.xlsx
+++ b/cortab/sheets/corpusTable_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcharvat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8563D007-7826-4702-A80C-8715D9884CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30764A0E-AF8E-4CAE-8EAD-D8138C36279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2650,7 +2650,7 @@
     <t>https://ota.bodleian.ox.ac.uk/</t>
   </si>
   <si>
-    <t>Algonquin, Amele, Ancient Greek, Anglo-Norman, Arabic, Bengali, Cameroon Pidgin, Classical Syriac, Croatian, Czech, Danish, Dutch, Egypt Sign Language, English, Esperanto, French, Fulah, Galician, German, Guarequena, Gujarati, Hanga, Hebrew, Hindi, Irigwe, Irish, Italian, Japanese, Jur Modo, Kurdish, Latin, Latvian, Malay, Malayalam, Mandarin Chinese, Middle English, Middle French, Middle High German, Middle Irish, Multiple languages, Nunggubuyu, Official Aramaic, Old English, Old French, Old Frisian, Old High German, Old Norse, Old Provençal, Old Spanish, Orya, Pali, Panjabi, Polish, Portuguese, Romanian, Romany, Russian, Sanskrit, Scots, Scottish Gaelic, Serbian, Serbo-Croatian, Slovenian, Spanish, Sumerian, Swedish, Tamil, Tibetan, Turkish, Urdu, Welsh</t>
+    <t>Algonquin, Amele, Ancient Greek, Anglo-Norman, Arabic, Bengali, Cameroon Pidgin, Classical Syriac, Croatian, Czech, Danish, Dutch, Egypt Sign Language, English, Esperanto, French, Fulah, Galician, German, Guarequena, Gujarati, Hanga, Hebrew, Hindi, Irigwe, Irish, Italian, Japanese, Jur Modo, Kurdish, Latin, Latvian, Malay, Malayalam, Mandarin Chinese, Middle English, Middle French, Middle High German, Middle Irish, Nunggubuyu, Official Aramaic, Old English, Old French, Old Frisian, Old High German, Old Norse, Old Provençal, Old Spanish, Orya, Pali, Panjabi, Polish, Portuguese, Romanian, Romany, Russian, Sanskrit, Scots, Scottish Gaelic, Serbian, Serbo-Croatian, Slovenian, Spanish, Sumerian, Swedish, Tamil, Tibetan, Turkish, Urdu, Welsh</t>
   </si>
   <si>
     <t>Vera Maria Charvat:
@@ -5705,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13681D-27C1-479A-B3FE-2062994A3E46}">
   <dimension ref="A1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21299,6 +21299,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E3261DFB21BBD4882DEE3D57B3A8DC9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="798bff4fba745f4c1f392c24abb8b1a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa2aa457-c057-42f4-8990-882fee487950" xmlns:ns3="227b4bc9-57bc-4bdb-842d-b6a969044232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98244d9abf430cf85e3c184444b0de3b" ns2:_="" ns3:_="">
     <xsd:import namespace="fa2aa457-c057-42f4-8990-882fee487950"/>
@@ -21529,7 +21540,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -21538,25 +21549,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa2aa457-c057-42f4-8990-882fee487950">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="227b4bc9-57bc-4bdb-842d-b6a969044232" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646C8EF6-25A7-43FD-9FE9-5E3A16AF2856}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1666C035-2F0F-4813-817C-5C966A9BAA29}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646C8EF6-25A7-43FD-9FE9-5E3A16AF2856}"/>
 </file>